--- a/energy_engin_dic.xlsx
+++ b/energy_engin_dic.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\PycharmProjects\Class06_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38DE6B7-2253-4C43-B495-855A89004682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B8FB0-EC9B-4797-91B0-B808988A7645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="9060" yWindow="432" windowWidth="16764" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="energy_engin_dic" sheetId="1" r:id="rId1"/>
@@ -22,772 +22,779 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
   <si>
+    <t>가감저항기</t>
+  </si>
+  <si>
+    <t>加減抵抗器</t>
+  </si>
+  <si>
+    <t>Rhoestat</t>
+  </si>
+  <si>
+    <t>저항선을 감고 여기에 탭을 내어서 저항을 가감할 수 있게 만든 저항기이다.</t>
+  </si>
+  <si>
+    <t>價格決定發電計劃</t>
+  </si>
+  <si>
+    <t>Price Setting Schedule</t>
+  </si>
+  <si>
+    <t>거래일의 한계가격을 산출하기 위해 수립하는 발전계획으로 열공급, 송전제약 등의 각종제약요소를 고려하지 않고 수립되는 비제약 발전계획으로 발전사업자가 신고한 공급가능용량, 기술적 특성자료 및 수요예측자료를 바탕으로 수립한다.</t>
+  </si>
+  <si>
+    <t>架空</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>어떤 시설물을 공중에 설치하는 것을 말한다.</t>
+  </si>
+  <si>
+    <t>架空索道</t>
+  </si>
+  <si>
+    <t>Aerial Cableway</t>
+  </si>
+  <si>
+    <t>사람, 화물, 광석 등을 나르기 위하여 두지점 사이에 케이블, 와이어 로프를 가설하고, 여기에 운반하는 운반차를 달고, 동력을 이용하여 공중 운송하는 설비인데 주로 비탈이 심한 곳이나 산악 지대에서 쓰인다. 가공삭도는 단선식과 복선식의 두종류가 있으며, 운전방식에는 순환식과 교주식이 있고 가공케이블, 로우프웨이, 공중케이블카라고도 한다.</t>
+  </si>
+  <si>
+    <t>架空送電線路</t>
+  </si>
+  <si>
+    <t>Overhead Trans- mission Line</t>
+  </si>
+  <si>
+    <t>철탑 등의 지지물을 이용하여 설치하는 송전선로로 지중 케이블을 사용하지 않고 피복이 없는 알루미늄 나선으로 되어있다.</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>10억분의 1을 의미하는 접수어로 기호는 n이다.</t>
+  </si>
+  <si>
+    <t>Butterfly Nut/Wing Nut</t>
+  </si>
+  <si>
+    <t>나비형의 너트로 손으로 돌려서 쉽게 잠그고 풀 수 있는 특수너트이다.</t>
+  </si>
+  <si>
+    <t>나비형밸브/플랩밸브</t>
+  </si>
+  <si>
+    <t>Flap Valve</t>
+  </si>
+  <si>
+    <t>버터플라이 밸브 참조</t>
+  </si>
+  <si>
+    <t>나사식급탄기</t>
+  </si>
+  <si>
+    <t>螺絲式給炭機</t>
+  </si>
+  <si>
+    <t>Screw Type Coal Feeder</t>
+  </si>
+  <si>
+    <t>무연탄 발전소에서 드래그 체인 급탄기(Drag Chain Type Coal Feeder)로부터 공급되는 석탄을 수직 상승관(Drying Shaft 또는 Lift Line)으로 확산, 공급하는 급탄기로 정속 운전된다. 패들(Paddle) 급탄기 또는 플러퍼(Fluffer) 급탄기라고도 한다.</t>
+  </si>
+  <si>
+    <t>나사식밸브</t>
+  </si>
+  <si>
+    <t>Screw End Valve</t>
+  </si>
+  <si>
+    <t>배관과 연결된 부분이 나사식으로 된 형식의 밸브이다.</t>
+  </si>
+  <si>
+    <t>多極接地工法</t>
+  </si>
+  <si>
+    <t>다극접지공법 또는 다점접지공법은 1점 병렬접지와 건물 바닥에 Mesh형태를 구성하여 본딩하는 방식의 접지방식으로 주파수 대역이 높아지면 임피던스 변화가 커서 접지의 특성을 유지하기가 어렵게 되기 때문에 이러한 문제점에 대응하여 실용화되고 있는 접지 공법이다.</t>
+  </si>
+  <si>
+    <t>다단디퓨즈형원심펌프</t>
+  </si>
+  <si>
+    <t>Multi-Stage Diffuser Type  Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>임펠러가 직렬로 2단 이상 있는 펌프로서 임펠러 송출쪽에 가이드 베인을 가진 것이다.</t>
+  </si>
+  <si>
+    <t>다단벌류트형원심펌프</t>
+  </si>
+  <si>
+    <t>多段벌류트形遠心펌프</t>
+  </si>
+  <si>
+    <t>Multi- Stage Volute Type Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>임펠러가 직렬로 2단 이상 있는 펌프로서 임펠러 송출쪽에 벌류트형의 케이싱을 가진것이다.</t>
+  </si>
+  <si>
+    <t>다단터빈</t>
+  </si>
+  <si>
+    <t>多段터빈</t>
+  </si>
+  <si>
+    <t>Multi-Stage Turbine</t>
+  </si>
+  <si>
+    <t>증기터빈에서 증기의 열에너지를 기계에너지로 바꾸는 과정을 여러단에서 하도록 되어 있는 형식이다.</t>
+  </si>
+  <si>
+    <t>다단형펌프</t>
+  </si>
+  <si>
+    <t>多段形펌프</t>
+  </si>
+  <si>
+    <t>Multi-Stage Pump</t>
+  </si>
+  <si>
+    <t>한 개의 축에 2개 이상의 회전차를 가지는 구조의 펌프이다.</t>
+  </si>
+  <si>
+    <t>라스터형그래픽스</t>
+  </si>
+  <si>
+    <t>Raster Graphics</t>
+  </si>
+  <si>
+    <t>2차원의 화소 배열을 일정 순서로 주사함으로써 표시 화상이 생성되는 컴퓨터 그래픽스</t>
+  </si>
+  <si>
+    <t>라이닝</t>
+  </si>
+  <si>
+    <t>Lining</t>
+  </si>
+  <si>
+    <t>산, 알카리, 부식성 액체와 기체로 부터 금속 보호 및 고체의 저장, 운반시 마모를 방지하기 위하여 금속표면에 두꺼운 고무나 플라스틱판 또는 금속판을 부착시키는 것을 라이닝이라 한다. 라이닝 재료로는 에보나이트, 연질고무, 경질고무, 네오프렌, 경질 PVC, 연 PVC, 에폭시, 내약품성 FRP, 폴리에틸렌, 불순강 등이 있다.</t>
+  </si>
+  <si>
+    <t>Life Line</t>
+  </si>
+  <si>
+    <t>곤도라(Gondola)의 작업대의 하강속도가 허용하강속도를 초과했을 경우에 작업대의 하강을 정지시키는 장치이다. 일반적으로 건설물의 상부에서 와이어 로우프나 섬유 로우프를 늘어뜨려 놓고 곤도라 작업대의 고정 장치에 의해서 작업대와 연결되어 있다. 작업대가 상승할 때에는 개방되고, 작업대가 불의에 급속도로 하강할 경우에는 고정 장치가 로우프를 꽉 잡아서 작업대의 하강을 정지시킨다.</t>
+  </si>
+  <si>
+    <t>라인·스탭형안전관리</t>
+  </si>
+  <si>
+    <t>라인·스탭형型安全管理</t>
+  </si>
+  <si>
+    <t>Line·Staff System for Safety Management</t>
+  </si>
+  <si>
+    <t>라인조직에 부설된 조직에 의한 안전관리방식이다. 안전업무를 전문으로 관장하는 스탶 조직을 두는 한편 전임이나 겸임의 안전담당자를 생산라인의 각 계층에 두고 이것을 라인의 명령계통에 편입시켜 안전관리를 실시하는 방식이다. 즉 안전담당자는 라인의 직 상급관리자의 감독과 명령에 따르는 것이다. 이 방식은 안전업무에 대한 기획, 입안, 조사, 연구 등이 전문적인 스탭 조직을 통해 이루어져, 생산기술의 진보발전에 부응하는 안전대책을 강구할 수 있는 동시에 라인의 각급관리자에게 안전의 책임과 권한이 부여되기 때문에 안전활동이 생산과 분리될 염려가 없다. 운영이 적절하게 이루어지면 이상적인 관리를 할 수 있는 방식이다.</t>
+  </si>
+  <si>
+    <t>라인형안전관리</t>
+  </si>
+  <si>
+    <t>라인型安全管理</t>
+  </si>
+  <si>
+    <t>Line System for Safety Management</t>
+  </si>
+  <si>
+    <t>안전관리조직형의 한가지이다. 안전의 계획에서 실시에 이르기까지 모두 생산라인을 통해서 행하는 관리방식이다. 안전에 대한 개선책이 각 부문의 직제를 통해서 생산업무와 함께 이루어지기 때문에 지시나 조치가 철저하며 실행도 빠르다. 그러나 생산라인의 각급관리·감독자는 일상적인 생산관계의 업무에 쫓기고 있기 때문에 안전에 대한 지식이나 정보를 체득하기 어려워 직장의 실태에 부응하는 대책을 취할 수 없다. 또 생산라인의 각 계층 관리자의 안전에 관한 이해도에는 차이가 있게 마련이어서 경영수뇌부의 사고방식이 현장에 철저하게 침투되기가 어렵다는 결점도 있다.</t>
+  </si>
+  <si>
+    <t>마노미터</t>
+  </si>
+  <si>
+    <t>Manometer</t>
+  </si>
+  <si>
+    <t>압력측정용 2개의 액주 사이의 변위를 이용하여 게이지 압력, 차압, 대기압, 절대압을 측정하는데 사용되며 가장 일반적으로 사용되는 액체는 수은과 물이다. U자관, 단관, 경사관 마노미터가 있다.</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>馬力</t>
+  </si>
+  <si>
+    <t>Horse Power(HP/PS)</t>
+  </si>
+  <si>
+    <t>동력의 단위이며 MKS 단위계에서는 PS로  English 단위계에서는 HP로 사용한다. PS:1초동안 75kg을 1m 이동하는 일에 해당하는 동력이다. 1PS=75kg.m/sec = 0.735kJ/sec = 0.735kW = 632 kcal/hr. HP : 1초동안에 550LB를 1ft 이동하는 일에 해당하는 동력.</t>
+  </si>
+  <si>
+    <t>마모</t>
+  </si>
+  <si>
+    <t>磨耗</t>
+  </si>
+  <si>
+    <t>Wear, Abrasion</t>
+  </si>
+  <si>
+    <t>마찰하여 닳는 현상이며 재료의 조합, 미끄럼 속도, 온도, 윤활의 정도에 따라 마모속도가 정해진다.</t>
+  </si>
+  <si>
+    <t>마모여유</t>
+  </si>
+  <si>
+    <t>磨耗餘裕</t>
+  </si>
+  <si>
+    <t>Wear Allowance</t>
+  </si>
+  <si>
+    <t>한계 게이지의 통과측은 마모때문에 치수가 달라지게 되므로 게이지의 수명을 보전하기위하여 마모에 대비하여 덧붙이는 여유이다.</t>
+  </si>
+  <si>
+    <t>마샬링캐비닛</t>
+  </si>
+  <si>
+    <t>Marshalling Cabinet</t>
+  </si>
+  <si>
+    <t>발전소나 공정 현장 결선을 위해 터미날 보드를 갖춘 캐비닛으로 서로 다른 위치로 오고가는 결선은 제어설비의 I/O 요구조건(여러가지의 전송기나 센서를 위해 필요한 신호 처리 장비를 가짐)에 맞도록 적절히 재배열된다.</t>
+  </si>
+  <si>
+    <t>바</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">면적 1㎡ 에 100,000 N(Newton)의 힘이 작용하는 압력으로 1 BAR=1.0197Kg/㎠이다. </t>
+  </si>
+  <si>
+    <t>Bar Screen</t>
+  </si>
+  <si>
+    <t>Trash Rack 참조</t>
+  </si>
+  <si>
+    <t>바깥쪽나사밸브스템비회전식밸브</t>
+  </si>
+  <si>
+    <t>바깥쪽螺絲밸브스템非回轉式밸브</t>
+  </si>
+  <si>
+    <t>Outside Screw Non-Rotating Stem Type Valve</t>
+  </si>
+  <si>
+    <t>바깥쪽 나사식이고 밸브의 개폐조작 때 밸브스템이 회전하지 않고 승강하는 형식의 밸브이다.</t>
+  </si>
+  <si>
+    <t>바깥쪽나사밸브스템중공식밸브</t>
+  </si>
+  <si>
+    <t>바깥쪽螺絲밸브스템中空式밸브</t>
+  </si>
+  <si>
+    <t>Outside Non-Rising Spindle Rising Hollow Stem Type Valve</t>
+  </si>
+  <si>
+    <t>밸브스템이 숫나사와 암나사의 조합으로 이루어지고, 밸브의 개폐조작 때 숫나사를 가지는 밸브스템이 정위치에서 회전하고 암나사를 가지는 밸브스템이 승강하는 형식이다.</t>
+  </si>
+  <si>
+    <t>바깥쪽나사밸브스템회전식밸브</t>
+  </si>
+  <si>
+    <t>바깥쪽螺絲밸브스템回轉式밸브</t>
+  </si>
+  <si>
+    <t>Outside Screw Rotating Stem Type Valve</t>
+  </si>
+  <si>
+    <t>바깥쪽 나사식이고 밸브의 개폐조작 때 밸브스템이 회전하면서 승강하는 형식의 밸브이다.</t>
+  </si>
+  <si>
+    <t>사(4)행정디젤</t>
+  </si>
+  <si>
+    <t>사(4)行政디젤</t>
+  </si>
+  <si>
+    <t>Four Stroke Diesel</t>
+  </si>
+  <si>
+    <t>피스톤의 매 사(4)행정중에서 한 행정으로 동력을 발생시키는 디젤엔진이다.</t>
+  </si>
+  <si>
+    <t>Rectangular Shape Valve</t>
+  </si>
+  <si>
+    <t>몸통의 상부가 직사각형 모양인 밸브를 의미한다.</t>
+  </si>
+  <si>
+    <t>斜流펌프</t>
+  </si>
+  <si>
+    <t>Mixed Flow Pump</t>
+  </si>
+  <si>
+    <t>임펠러에서 토출되는 유체의 흐름이 주축의 중심선에 대하여 기울어진 펌프로 원심펌프와 축류펌프의 중간 비속도의 범위(약 800∼1000/mim/m/rpm)에 적용된다. 원심펌프에 비하여 마감 양정비는 크고 축류펌프에 비해 효율이 좋고 유량범위가 넓다. 또 축동력은 전유량역에 걸쳐서 거의 일정하다.</t>
+  </si>
+  <si>
+    <t>事業管理責任者</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>책임의 일원화를 위해서 사업 착수시점에서 종료시점까지 그 Project를 지휘, 감독하여 기술, 품질, 비용, 일정상의 요구사항을 만족시킬 수 있는 최종 결과를 낳고, 동시에 비즈니스로서의 이익목표를 달성하기 위해 선임된 Project의 총괄 관리책임자를 말한다.</t>
+  </si>
+  <si>
+    <t>사업금융</t>
+  </si>
+  <si>
+    <t>事業金融</t>
+  </si>
+  <si>
+    <t>Project Financing</t>
+  </si>
+  <si>
+    <t>Project Manager의 역할은 Project의 조직화, 효율적 운용, 대외적 조정 등이며, 전문기술로 Project Team을 통솔한다기보다는, 사람을 움직이는 힘으로 Project의 목표를 달성시키는 일이다. Project Manager로서의 권한, 즉 사람을 움직이는 힘은 公的權威(Formal Authority) 및 私的權威(Informal Authority)에 의하고 있다. 公的權威(공적권위)란 Manager에 임명됨으로서 주어진 組織의 權限이다. 한편, 私的權威(사적권위)란 Project Manager가 개인적으로 갖고 있는 대인 영향력으로, 경험, 실적, 지식, 기술력, 인간적 매력에 의한 존경, 신뢰, 우호의 감정으로부터 생기는 힘이며, 사업관리에 있어서는 후자의 힘이 대단히 크게 작용하는데 유의해야 한다.</t>
+  </si>
+  <si>
+    <t>아닐링/풀림/소둔</t>
+  </si>
+  <si>
+    <t>Annealing</t>
+  </si>
+  <si>
+    <t>Project Manager의 責任은 한마디로 말하면 Project를 성공시키는 것이며 이에는 고객을 만족시키는 일과 회사의 Top Management를 만족시키는 일이 포함되어 있다. 이 책임은 극히 광범위하며, 대표적인 것으로서는 1. Project 수행방침 및 목표치의 설정 2. Project 組織의 維持 3. Project 요구 품질, 일정, 비용의 목표달성, 4. Project 수행 상황의 파악, 감독, 5. 회사를 대표한 발주자 대응 6. 例外事項에 대한 의사결정 등이다.</t>
+  </si>
+  <si>
+    <t>Akamson Joint</t>
+  </si>
+  <si>
+    <t>대규모의 Project에서는 Project Manager를 상위에서 원조하는 Project Director 하위에서 보좌하는 Assistant Project Manager, Staff로 보좌하는 Pro- ject Coordinator 등을 둘 때가 있다. 또 Pro- ject Manager가 건설 현장에 상주하지 않는 경우에는 이의 대리로서 Site Manager 또는 Field Manager를 둔다.</t>
+  </si>
+  <si>
+    <t>亞瀝靑炭</t>
+  </si>
+  <si>
+    <t>Sub-Bitumnous Coal</t>
+  </si>
+  <si>
+    <t>역청탄중 탄화도가 낮은 것으로서 점결성이 없고 수분이 많으며 건조시 소리를 내며 갈라지고 대기중에 장시간 방치하면 분해된다. 발열량은 무수무회기준으로 4,600-6,400kcal/ kg정도이다</t>
+  </si>
+  <si>
+    <t>Idle Gear</t>
+  </si>
+  <si>
+    <t>전동장치에 있어서 원동차와 종동차의 중간에 있는 기어로 2축간의 거리가 크거나 혹은 회전방향을 바꾸기 위해 사용한다.</t>
+  </si>
+  <si>
+    <t>Idler</t>
+  </si>
+  <si>
+    <t>콘베이어 계통에서 벨트를 받쳐 밑으로 늘어지지 않게 하고 마찰을 감소시켜 주는 롤러(Roller)장치로 벨트를 이송시켜 주는 곳에도 사용된다.</t>
+  </si>
+  <si>
+    <t>自家用火力發電所</t>
+  </si>
+  <si>
+    <t>Captive Power Plant</t>
+  </si>
+  <si>
+    <t>자가 사용 전력을 생산할 목적으로 설치하는 화력발전소. 자체에서 필요한 증기를 쓰면서 발전을 곁들이는 경우가 많다.</t>
+  </si>
+  <si>
+    <t>資格賦與</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>발주자로부터 Proposal 제출이나 入札 資格을 부여받는 것을 Qualify 라고 하며, 계약자나 기기 공급자(Vendor)를 選定함에 있어 입찰에 참가시키는 것을 선정하는 경우에도 사용되고, 최초의 계약자나 공급자에 대해서 제출 자료나 공장 심사 등을 기본으로 하여 자격을 주는 경우에도 사용된다.자격부여를 희망하는 계약자나 공급자는 발주측에 대해서 自社의 經驗이나 能力을 이해시키기 위해서 자격심사용 서류(Qualification Brochure)를 작성하며, 이 내용은 회사 조직이 소개, 취급하고 있는 Process나 제품의 특징, 과거 실적, 기술 제휴의 紹介 등이다.</t>
+  </si>
+  <si>
+    <t>磁界</t>
+  </si>
+  <si>
+    <t>Magnetic Field</t>
+  </si>
+  <si>
+    <t>자기력이 작용하는 물리적 상태의 공간이다.</t>
+  </si>
+  <si>
+    <t>자기(自己)임피던스</t>
+  </si>
+  <si>
+    <t>Self Impedance</t>
+  </si>
+  <si>
+    <t>전류의 흐름을 방해하는 전기회로의 물리적 특성을 말하며, 저항의 일종에 속한다. 어떤 전기회로에 전류 I가 흐르면 전류 주위에는 자계(magnetic field)가 형성되고, 전류에 의해서 생긴 자속(magnetic flux)과 항상 반대방향으로 교차(이를 “쇄교”라고 한다)하게 된다. 이러한 경우에 회로에 흐르는 전류를 변화시키면 쇄교수에 변화가 생겨서 회로 내에는 자속의 변화를 방해하는 방향으로 기전력이 유도된다. 이때 자속ψ와 전류I와의 비를 회로의 자기임피던스라 한다. 식으로 표시하면 L＝dψ/dI [H], 이것을 Impedance로 환산한 값을 Self Impedance라 한다.</t>
+  </si>
+  <si>
+    <t>磁氣檢査</t>
+  </si>
+  <si>
+    <t>Magnetic Inspection</t>
+  </si>
+  <si>
+    <t>전자석을 응용하여 용접부 외부의 균열, 동공 등의 불량을 확인하는 검사이다.</t>
+  </si>
+  <si>
+    <t>遮斷器</t>
+  </si>
+  <si>
+    <t>Breaker/Circuit Breaker</t>
+  </si>
+  <si>
+    <t>정상상태의 전류를 투입 통전 차단하며 단락과 같은 이상상태에 있어서 투입, 일정시간의 통전 차단이 가능한 개폐장치이다.</t>
+  </si>
+  <si>
+    <t>CB : Circuit Breaker</t>
+  </si>
+  <si>
+    <t>차단기는 정상상태의 전로뿐만 아니라 이상상태의 전로도 개폐할 수 있는 개폐장치를 말한다. 국제표준규격(IEC)에서는 ‘정상상태의 전류를 투입, 통전, 차단하며 또한 단락과 같은 소정의 이상상태에 있어서 투입, 일정시간의 통전, 차단이 가능하도록 설계된 개폐장치를 말한다’라고 정의한다. 차단기의 구비요건(성능)으로는, 투입상태에서 양호한 도체로, 정상 또는 단락고장상태와 같은 이상조건에서도 열적, 구조적으로 견디어야 하며 개방상태에서 양호한 절연체로 상간 또는 상과 대지간 절연이 유지되어야 한다. 또한 차단기 투입시에는 이상전압 발생이 없이 정격 또는 그 이하의 발생전류를 정상적으로 차단하여야 하고 차단기 개방시에는 접촉자 손상이 없이 신속, 안전하게 회로를 분리하여야 한다. 차단기는 사용회로에 따라 직류용, 교류용으로 분류되며 소호방식에 따라 자력식, 타력식으로 구분되고, 소호매질에 따라 기중차단기(ACB), 유입차단기(OCB), 자기차단기(MBB), 공기차단기(ABB), 진공차단기(VCB), 가스차단기(GCB)로 분류된다. 또한 차단기 사용목적에 따라 발전기용, 선로용, 변압기용, 콘덴서회로용, 분로리액터(Shunt Re- actor)용 등으로 분류되기도 한다.</t>
+  </si>
+  <si>
+    <t>차단벽/커튼월</t>
+  </si>
+  <si>
+    <t>遮斷壁</t>
+  </si>
+  <si>
+    <t>Curtain Wall</t>
+  </si>
+  <si>
+    <t>온도가 낮은 심층해수를 취수하기 위해 취수구 앞면에 설치한 상부 차단용의 벽이다.</t>
+  </si>
+  <si>
+    <t>차단시간</t>
+  </si>
+  <si>
+    <t>遮斷時間</t>
+  </si>
+  <si>
+    <t>Breaking Time</t>
+  </si>
+  <si>
+    <t>차단기의 차단특성의 하나이며 개극 시간[페로상태에 있는 장치의 트립 기구에 부세한 순시로부터 아아크 접촉자가 개리하기 시작할 때까지의 시간(아아크 접촉자 개리의 순시로부터 각 상 또는 어떤 상이 소호할 때까지의 시간)의 합을 말한다. 보통형에서는 8 ~ 10 Hz, 고속형이 5Hz, 초고속도형은 3Hz이다</t>
+  </si>
+  <si>
+    <t>차단양정</t>
+  </si>
+  <si>
+    <t>遮斷揚程</t>
+  </si>
+  <si>
+    <t>Shut Off Head/No-Discha- rge Head</t>
+  </si>
+  <si>
+    <t>정상 운전중인 펌프의 출구변을 닫았을 경우 송출량이 0일 때의 총양정이다.</t>
+  </si>
+  <si>
+    <t>카르노사이클</t>
+  </si>
+  <si>
+    <t>Carnot Cycle</t>
+  </si>
+  <si>
+    <t>열기관의 최고 열효율을 알기 위해 카르노가 생각한 열역학상의 가역사이클로 2개의 등온변화와 2개의 단열변화를 가상하고 기체를 등온팽창-단열팽창-등온압축-단열압축의 변화를 시켜 최초의 상태로 복귀시키는 사이클이다. 실제의기관에서는 마찰이나 열의 전도가 있기 때문에 완전한 단열변화나 등온변화 실현시킬수는 없으므로 이 사이클은 성립되지 않지만 실제의 기관이 이상적인 사이클과 비교하여 얼마만큼 개량할 여지가 있는가를 조사하기 위해서 중요한 의의가 있다.</t>
+  </si>
+  <si>
+    <t>카르만와열</t>
+  </si>
+  <si>
+    <t>Karman Vortex Street</t>
+  </si>
+  <si>
+    <t>어느 유동조건하에서 물체의 양측으로부터 회전방향이 반대인 와동이 번갈아가며 발생하여 규칙적인 배열을 유지하면서 흘러가버리는 와열이다.</t>
+  </si>
+  <si>
+    <t>카보런덤</t>
+  </si>
+  <si>
+    <t>Carborundum</t>
+  </si>
+  <si>
+    <t>규사와 코우크스를 전기로에서 약 2000C로 가열하여 만든다. 융점이 높고 단단하며 용도는 내화제, 연마재로 쓰인다.</t>
+  </si>
+  <si>
+    <t>Count Balance</t>
+  </si>
+  <si>
+    <t>전복이 우려되는 곳에 균형을 잡아주기 위해 실어주는 Weight로 총 중량은 빈 케이지(Cage)의 하중에 사용 상황에 따른 적재하중의 35-40%의 중량을 더한 값으로 하는 것이 보통이며 적재하중의 몇%를 더한 것이 오버밸런스(Over Bala- nce)이며 평행추(Count Balance Weight)는 거의가 오목구강형으로 만든 틀 속에 주철재의 추(錘) 조작을 삽입하고 있으며 흔들림이 있을 때에 추 조작이 빠져나오지 않도록 하여야 한다. 프레스와 같이 상하로 왕복운동을 하는 슬라이드의 관성을 경감하기 위한 장치이기도 하다.</t>
+  </si>
+  <si>
+    <t>카트리지</t>
+  </si>
+  <si>
+    <t>Cartridge</t>
+  </si>
+  <si>
+    <t>컴퓨터 프로그램이나 데아타값을 저장하기위해 사용되는 소형장치.  디스크에 비해 저장하는 정보의 양은 작고 접근시간은 길다.</t>
+  </si>
+  <si>
+    <t>타당성조사</t>
+  </si>
+  <si>
+    <t>妥當性照査</t>
+  </si>
+  <si>
+    <t>Feasibility Study</t>
+  </si>
+  <si>
+    <t>발주자가 사업을 착수할 때 기술적으로 가능한지, 채산성이 있는지, 사업으로서의 가능성이 있는지 등을 사전에 조사하는 것으로 검토의 정도에 따라 豫備調査, 細部調査로 분류하며 기업화 조사 또는 투자조사라 불리는 것도 있다.타당성 조사를 시행하기 이해서는 우선 프로젝트의 목적이 설정되어 있어야 하며 또한 개략의 계획이 있어야 비로소 그 프로젝트가 실행 가능한지 어떤지를 검토할 수 있다. 타당성 조사에 포함된 조사, 검토 작업에는 市場調査, 技術檢討, 資金計劃, 社會分析(社會體制, 環境) 및 經濟性 分析이 있다.예를 들면 Plant의 경우 원료, 제품의 시장조사, 이용 가능한 기술과 Process의 비교, 예비적인 Cost 적산(건설비와 조업 Cost), 경제적 최적 규모, 입지조건과 입지선정, 건설공사, 운전 공정의 입안, Master Plan 작성, 기기 시방서의 기준이 되는 설비나 기기 기준 등이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>타원몸통형밸브</t>
+  </si>
+  <si>
+    <t>楕圓몸통型밸브</t>
+  </si>
+  <si>
+    <t>Oval Shape Valve</t>
+  </si>
+  <si>
+    <t>몸통의 상부가 타원형인 밸브이다.</t>
+  </si>
+  <si>
+    <t>타음검사</t>
+  </si>
+  <si>
+    <t>打音檢査</t>
+  </si>
+  <si>
+    <t>Hammering Test</t>
+  </si>
+  <si>
+    <t>해머 등으로 두드려서 음의 높이, 감쇠의 속도로서 내부의 상태를 판단하는 검사이다.</t>
+  </si>
+  <si>
+    <t>Time-lag</t>
+  </si>
+  <si>
+    <t>인간은 두뇌에서 어떤 행동을 결심해도 그 지령에 따라 손과 발이 작용해서 동작하기까지에는 시간을 요한다. 즉 판단에 의해 지령한 것은 지령과 동시에 동작으로 나타나는 것이 아니고 나타나기까지에는 어떤 시간적인 어긋남이 있다. 이것을 타임래그라고 한다. 이와 같은 타임래그는 생산과정에서의 설비기계, 장치의 움직임에 있어서도 마찬가지로 그것이 인간과 짝을 이루는 인간기계계에 있어서는 보다 크게 타임 래그가 나타나서 재해의 원인이 된다.</t>
+  </si>
+  <si>
+    <t>탁도</t>
+  </si>
+  <si>
+    <t>濁度</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>물의 흐림 정도를 나타내는 단위. 보통 흐림은 진흙, 유기물, 미생물 등 물에 용해되지 않는 물질이 침강되지 않고 부유되어 있을 때에 생긴다. 빛이 용액을 통과시 그 전후 강도의 차이로 용해분자의 크기와 형상에 관계된다. 백토 1 을 물 1 에 현탄시킨 것을 탁도 1이라하며 표준으로 사용한다.</t>
+  </si>
+  <si>
+    <t>파고율</t>
+  </si>
+  <si>
+    <t>波高率</t>
+  </si>
+  <si>
+    <t>Peak Factor/Crest Factor</t>
+  </si>
+  <si>
+    <t>교류파형의 최대값을 실효값으로 나눈 값으로 정현파의 파고율은 1.414이다.</t>
+  </si>
+  <si>
+    <t>파괴시험</t>
+  </si>
+  <si>
+    <t>破壞試驗</t>
+  </si>
+  <si>
+    <t>Break Down Test, Breaking Test</t>
+  </si>
+  <si>
+    <t>특정한 시험물체를 파괴하여 시험물체가 파괴에 견디는 최대하중이나 파괴상태 등을 조사하는 시험 이다.</t>
+  </si>
+  <si>
+    <t>파력발전</t>
+  </si>
+  <si>
+    <t>波力發電</t>
+  </si>
+  <si>
+    <t>Wave Power Generation</t>
+  </si>
+  <si>
+    <t>파랑(波浪)이 가지는 에너지를 이용하는 발전이다. 발전장치를 바다에 띄우는 방식과 연안에 설치하는 방식이 있다. 해안선에 도달하는 파력의 크기는 해안선 길이나 파력에 대한 계산방법에 따라 다르지만, 1m당 6∼10㎾로 계산하면 세계 바다의 총파력은 40페타와트(1PW=10㎾)로 추정되지만 파력에너지 전체가 전력으로 유용되지는 못한다. 1965년부터 실용화되고 있는 항로표지용 부표전원장치는 부표에 수직으로 관을 설치하고 해면의 상하운동으로 관내 공기를 압축하여 터빈을 돌려 발전하며 출력은 10㎾ 정도이다. 해안설치방식에는 고정식 공기터빈과 환초를 이용하는 댐 등이 있다.</t>
+  </si>
+  <si>
+    <t>파스칼</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>국제단위계의 압력단위로 1㎡에 1N(Newton)의 힘이 작용하는 압력으로 Pa=1.0197 X 10-5kg/㎠이다.</t>
+  </si>
+  <si>
+    <t>파아슨즈터빈</t>
+  </si>
+  <si>
+    <t>Parson's Turbine</t>
+  </si>
+  <si>
+    <t>영국이 파아슨이 발명한 반동식 증기터빈. 증기속도가 낮으며 실용적이나 몸체가 크고 제작과 수리가 어렵다.</t>
+  </si>
+  <si>
+    <t>下降管</t>
+  </si>
+  <si>
+    <t>Down Comer</t>
+  </si>
+  <si>
+    <t>보일러 상부에 설치된 드럼에서 보일러 수가 수냉벽으로 들어가기 위해 내려가는 관. 보통 4~8개의 관이 설치되며 물의 자연순환력을 높이기 위해 연소가스로 가열되지 않도록 보일러 외측에 배치되고 강제순환 보일러의 경우 하강관 중간에 보일러수 순환펌프가 설치된다.</t>
+  </si>
+  <si>
+    <t>下降特性</t>
+  </si>
+  <si>
+    <t>Rising Characteristics</t>
+  </si>
+  <si>
+    <t>송출량의 증가와 함께 총양정이 감소하는 특성이다.</t>
+  </si>
+  <si>
+    <t>下都給</t>
+  </si>
+  <si>
+    <t>도급받은 건설공사의 전부 또는 일부를 도급하기 위하여 수급인이 제3자와 체결하는 계약을 말한다.</t>
+  </si>
+  <si>
+    <t>下部 케이싱</t>
+  </si>
+  <si>
+    <t>Lower Casing</t>
+  </si>
+  <si>
+    <t>수평분할형 터빈이나 펌프등의 케이싱 하부를 말한다.</t>
+  </si>
+  <si>
+    <t>下水排水펌프</t>
+  </si>
+  <si>
+    <t>Sanitary Sewage Pump</t>
+  </si>
+  <si>
+    <t>구역내의 오수를 다음 펌프장이나 하수처리장에 보내거나 빗물을 하천에 직접 방류시키기 위하여 설치한 펌프이다.</t>
+  </si>
+  <si>
     <t>한글명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>한문명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>영문명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-  </si>
-  <si>
-    <t>가감저항기</t>
-  </si>
-  <si>
-    <t>加減抵抗器</t>
-  </si>
-  <si>
-    <t>Rhoestat</t>
-  </si>
-  <si>
-    <t>저항선을 감고 여기에 탭을 내어서 저항을 가감할 수 있게 만든 저항기이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가격결정발전계획 </t>
-  </si>
-  <si>
-    <t>價格決定發電計劃</t>
-  </si>
-  <si>
-    <t>Price Setting Schedule</t>
-  </si>
-  <si>
-    <t>거래일의 한계가격을 산출하기 위해 수립하는 발전계획으로 열공급, 송전제약 등의 각종제약요소를 고려하지 않고 수립되는 비제약 발전계획으로 발전사업자가 신고한 공급가능용량, 기술적 특성자료 및 수요예측자료를 바탕으로 수립한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가공 </t>
-  </si>
-  <si>
-    <t>架空</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>어떤 시설물을 공중에 설치하는 것을 말한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가공삭도 </t>
-  </si>
-  <si>
-    <t>架空索道</t>
-  </si>
-  <si>
-    <t>Aerial Cableway</t>
-  </si>
-  <si>
-    <t>사람, 화물, 광석 등을 나르기 위하여 두지점 사이에 케이블, 와이어 로프를 가설하고, 여기에 운반하는 운반차를 달고, 동력을 이용하여 공중 운송하는 설비인데 주로 비탈이 심한 곳이나 산악 지대에서 쓰인다. 가공삭도는 단선식과 복선식의 두종류가 있으며, 운전방식에는 순환식과 교주식이 있고 가공케이블, 로우프웨이, 공중케이블카라고도 한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가공송전선로 </t>
-  </si>
-  <si>
-    <t>架空送電線路</t>
-  </si>
-  <si>
-    <t>Overhead Trans- mission Line</t>
-  </si>
-  <si>
-    <t>철탑 등의 지지물을 이용하여 설치하는 송전선로로 지중 케이블을 사용하지 않고 피복이 없는 알루미늄 나선으로 되어있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나노 </t>
-  </si>
-  <si>
-    <t>Nano</t>
-  </si>
-  <si>
-    <t>10억분의 1을 의미하는 접수어로 기호는 n이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>나비형너트/윙너트</t>
-  </si>
-  <si>
-    <t>Butterfly Nut/Wing Nut</t>
-  </si>
-  <si>
-    <t>나비형의 너트로 손으로 돌려서 쉽게 잠그고 풀 수 있는 특수너트이다.</t>
-  </si>
-  <si>
-    <t>나비형밸브/플랩밸브</t>
-  </si>
-  <si>
-    <t>Flap Valve</t>
-  </si>
-  <si>
-    <t>버터플라이 밸브 참조</t>
-  </si>
-  <si>
-    <t>나사식급탄기</t>
-  </si>
-  <si>
-    <t>螺絲式給炭機</t>
-  </si>
-  <si>
-    <t>Screw Type Coal Feeder</t>
-  </si>
-  <si>
-    <t>무연탄 발전소에서 드래그 체인 급탄기(Drag Chain Type Coal Feeder)로부터 공급되는 석탄을 수직 상승관(Drying Shaft 또는 Lift Line)으로 확산, 공급하는 급탄기로 정속 운전된다. 패들(Paddle) 급탄기 또는 플러퍼(Fluffer) 급탄기라고도 한다.</t>
-  </si>
-  <si>
-    <t>나사식밸브</t>
-  </si>
-  <si>
-    <t>Screw End Valve</t>
-  </si>
-  <si>
-    <t>배관과 연결된 부분이 나사식으로 된 형식의 밸브이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>다극접지공법</t>
-  </si>
-  <si>
-    <t>多極接地工法</t>
-  </si>
-  <si>
-    <t>다극접지공법 또는 다점접지공법은 1점 병렬접지와 건물 바닥에 Mesh형태를 구성하여 본딩하는 방식의 접지방식으로 주파수 대역이 높아지면 임피던스 변화가 커서 접지의 특성을 유지하기가 어렵게 되기 때문에 이러한 문제점에 대응하여 실용화되고 있는 접지 공법이다.</t>
-  </si>
-  <si>
-    <t>다단디퓨즈형원심펌프</t>
-  </si>
-  <si>
-    <t>Multi-Stage Diffuser Type  Centrifugal Pump</t>
-  </si>
-  <si>
-    <t>임펠러가 직렬로 2단 이상 있는 펌프로서 임펠러 송출쪽에 가이드 베인을 가진 것이다.</t>
-  </si>
-  <si>
-    <t>다단벌류트형원심펌프</t>
-  </si>
-  <si>
-    <t>多段벌류트形遠心펌프</t>
-  </si>
-  <si>
-    <t>Multi- Stage Volute Type Centrifugal Pump</t>
-  </si>
-  <si>
-    <t>임펠러가 직렬로 2단 이상 있는 펌프로서 임펠러 송출쪽에 벌류트형의 케이싱을 가진것이다.</t>
-  </si>
-  <si>
-    <t>다단터빈</t>
-  </si>
-  <si>
-    <t>多段터빈</t>
-  </si>
-  <si>
-    <t>Multi-Stage Turbine</t>
-  </si>
-  <si>
-    <t>증기터빈에서 증기의 열에너지를 기계에너지로 바꾸는 과정을 여러단에서 하도록 되어 있는 형식이다.</t>
-  </si>
-  <si>
-    <t>다단형펌프</t>
-  </si>
-  <si>
-    <t>多段形펌프</t>
-  </si>
-  <si>
-    <t>Multi-Stage Pump</t>
-  </si>
-  <si>
-    <t>한 개의 축에 2개 이상의 회전차를 가지는 구조의 펌프이다.</t>
-  </si>
-  <si>
-    <t>라스터형그래픽스</t>
-  </si>
-  <si>
-    <t>Raster Graphics</t>
-  </si>
-  <si>
-    <t>2차원의 화소 배열을 일정 순서로 주사함으로써 표시 화상이 생성되는 컴퓨터 그래픽스</t>
-  </si>
-  <si>
-    <t>라이닝</t>
-  </si>
-  <si>
-    <t>Lining</t>
-  </si>
-  <si>
-    <t>산, 알카리, 부식성 액체와 기체로 부터 금속 보호 및 고체의 저장, 운반시 마모를 방지하기 위하여 금속표면에 두꺼운 고무나 플라스틱판 또는 금속판을 부착시키는 것을 라이닝이라 한다. 라이닝 재료로는 에보나이트, 연질고무, 경질고무, 네오프렌, 경질 PVC, 연 PVC, 에폭시, 내약품성 FRP, 폴리에틸렌, 불순강 등이 있다.</t>
-  </si>
-  <si>
-    <t>라이프 라인</t>
-  </si>
-  <si>
-    <t>Life Line</t>
-  </si>
-  <si>
-    <t>곤도라(Gondola)의 작업대의 하강속도가 허용하강속도를 초과했을 경우에 작업대의 하강을 정지시키는 장치이다. 일반적으로 건설물의 상부에서 와이어 로우프나 섬유 로우프를 늘어뜨려 놓고 곤도라 작업대의 고정 장치에 의해서 작업대와 연결되어 있다. 작업대가 상승할 때에는 개방되고, 작업대가 불의에 급속도로 하강할 경우에는 고정 장치가 로우프를 꽉 잡아서 작업대의 하강을 정지시킨다.</t>
-  </si>
-  <si>
-    <t>라인·스탭형안전관리</t>
-  </si>
-  <si>
-    <t>라인·스탭형型安全管理</t>
-  </si>
-  <si>
-    <t>Line·Staff System for Safety Management</t>
-  </si>
-  <si>
-    <t>라인조직에 부설된 조직에 의한 안전관리방식이다. 안전업무를 전문으로 관장하는 스탶 조직을 두는 한편 전임이나 겸임의 안전담당자를 생산라인의 각 계층에 두고 이것을 라인의 명령계통에 편입시켜 안전관리를 실시하는 방식이다. 즉 안전담당자는 라인의 직 상급관리자의 감독과 명령에 따르는 것이다. 이 방식은 안전업무에 대한 기획, 입안, 조사, 연구 등이 전문적인 스탭 조직을 통해 이루어져, 생산기술의 진보발전에 부응하는 안전대책을 강구할 수 있는 동시에 라인의 각급관리자에게 안전의 책임과 권한이 부여되기 때문에 안전활동이 생산과 분리될 염려가 없다. 운영이 적절하게 이루어지면 이상적인 관리를 할 수 있는 방식이다.</t>
-  </si>
-  <si>
-    <t>라인형안전관리</t>
-  </si>
-  <si>
-    <t>라인型安全管理</t>
-  </si>
-  <si>
-    <t>Line System for Safety Management</t>
-  </si>
-  <si>
-    <t>안전관리조직형의 한가지이다. 안전의 계획에서 실시에 이르기까지 모두 생산라인을 통해서 행하는 관리방식이다. 안전에 대한 개선책이 각 부문의 직제를 통해서 생산업무와 함께 이루어지기 때문에 지시나 조치가 철저하며 실행도 빠르다. 그러나 생산라인의 각급관리·감독자는 일상적인 생산관계의 업무에 쫓기고 있기 때문에 안전에 대한 지식이나 정보를 체득하기 어려워 직장의 실태에 부응하는 대책을 취할 수 없다. 또 생산라인의 각 계층 관리자의 안전에 관한 이해도에는 차이가 있게 마련이어서 경영수뇌부의 사고방식이 현장에 철저하게 침투되기가 어렵다는 결점도 있다.</t>
-  </si>
-  <si>
-    <t>마노미터</t>
-  </si>
-  <si>
-    <t>Manometer</t>
-  </si>
-  <si>
-    <t>압력측정용 2개의 액주 사이의 변위를 이용하여 게이지 압력, 차압, 대기압, 절대압을 측정하는데 사용되며 가장 일반적으로 사용되는 액체는 수은과 물이다. U자관, 단관, 경사관 마노미터가 있다.</t>
-  </si>
-  <si>
-    <t>마력</t>
-  </si>
-  <si>
-    <t>馬力</t>
-  </si>
-  <si>
-    <t>Horse Power(HP/PS)</t>
-  </si>
-  <si>
-    <t>동력의 단위이며 MKS 단위계에서는 PS로  English 단위계에서는 HP로 사용한다. PS:1초동안 75kg을 1m 이동하는 일에 해당하는 동력이다. 1PS=75kg.m/sec = 0.735kJ/sec = 0.735kW = 632 kcal/hr. HP : 1초동안에 550LB를 1ft 이동하는 일에 해당하는 동력.</t>
-  </si>
-  <si>
-    <t>마모</t>
-  </si>
-  <si>
-    <t>磨耗</t>
-  </si>
-  <si>
-    <t>Wear, Abrasion</t>
-  </si>
-  <si>
-    <t>마찰하여 닳는 현상이며 재료의 조합, 미끄럼 속도, 온도, 윤활의 정도에 따라 마모속도가 정해진다.</t>
-  </si>
-  <si>
-    <t>마모여유</t>
-  </si>
-  <si>
-    <t>磨耗餘裕</t>
-  </si>
-  <si>
-    <t>Wear Allowance</t>
-  </si>
-  <si>
-    <t>한계 게이지의 통과측은 마모때문에 치수가 달라지게 되므로 게이지의 수명을 보전하기위하여 마모에 대비하여 덧붙이는 여유이다.</t>
-  </si>
-  <si>
-    <t>마샬링캐비닛</t>
-  </si>
-  <si>
-    <t>Marshalling Cabinet</t>
-  </si>
-  <si>
-    <t>발전소나 공정 현장 결선을 위해 터미날 보드를 갖춘 캐비닛으로 서로 다른 위치로 오고가는 결선은 제어설비의 I/O 요구조건(여러가지의 전송기나 센서를 위해 필요한 신호 처리 장비를 가짐)에 맞도록 적절히 재배열된다.</t>
-  </si>
-  <si>
-    <t>바</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">면적 1㎡ 에 100,000 N(Newton)의 힘이 작용하는 압력으로 1 BAR=1.0197Kg/㎠이다. </t>
-  </si>
-  <si>
-    <t>바 스크린</t>
-  </si>
-  <si>
-    <t>Bar Screen</t>
-  </si>
-  <si>
-    <t>Trash Rack 참조</t>
-  </si>
-  <si>
-    <t>바깥쪽나사밸브스템비회전식밸브</t>
-  </si>
-  <si>
-    <t>바깥쪽螺絲밸브스템非回轉式밸브</t>
-  </si>
-  <si>
-    <t>Outside Screw Non-Rotating Stem Type Valve</t>
-  </si>
-  <si>
-    <t>바깥쪽 나사식이고 밸브의 개폐조작 때 밸브스템이 회전하지 않고 승강하는 형식의 밸브이다.</t>
-  </si>
-  <si>
-    <t>바깥쪽나사밸브스템중공식밸브</t>
-  </si>
-  <si>
-    <t>바깥쪽螺絲밸브스템中空式밸브</t>
-  </si>
-  <si>
-    <t>Outside Non-Rising Spindle Rising Hollow Stem Type Valve</t>
-  </si>
-  <si>
-    <t>밸브스템이 숫나사와 암나사의 조합으로 이루어지고, 밸브의 개폐조작 때 숫나사를 가지는 밸브스템이 정위치에서 회전하고 암나사를 가지는 밸브스템이 승강하는 형식이다.</t>
-  </si>
-  <si>
-    <t>바깥쪽나사밸브스템회전식밸브</t>
-  </si>
-  <si>
-    <t>바깥쪽螺絲밸브스템回轉式밸브</t>
-  </si>
-  <si>
-    <t>Outside Screw Rotating Stem Type Valve</t>
-  </si>
-  <si>
-    <t>바깥쪽 나사식이고 밸브의 개폐조작 때 밸브스템이 회전하면서 승강하는 형식의 밸브이다.</t>
-  </si>
-  <si>
-    <t>사(4)행정디젤</t>
-  </si>
-  <si>
-    <t>사(4)行政디젤</t>
-  </si>
-  <si>
-    <t>Four Stroke Diesel</t>
-  </si>
-  <si>
-    <t>피스톤의 매 사(4)행정중에서 한 행정으로 동력을 발생시키는 디젤엔진이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사각몸통형밸브 </t>
-  </si>
-  <si>
-    <t>Rectangular Shape Valve</t>
-  </si>
-  <si>
-    <t>몸통의 상부가 직사각형 모양인 밸브를 의미한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사류펌프 </t>
-  </si>
-  <si>
-    <t>斜流펌프</t>
-  </si>
-  <si>
-    <t>Mixed Flow Pump</t>
-  </si>
-  <si>
-    <t>임펠러에서 토출되는 유체의 흐름이 주축의 중심선에 대하여 기울어진 펌프로 원심펌프와 축류펌프의 중간 비속도의 범위(약 800∼1000/mim/m/rpm)에 적용된다. 원심펌프에 비하여 마감 양정비는 크고 축류펌프에 비해 효율이 좋고 유량범위가 넓다. 또 축동력은 전유량역에 걸쳐서 거의 일정하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사업관리책임자 </t>
-  </si>
-  <si>
-    <t>事業管理責任者</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>책임의 일원화를 위해서 사업 착수시점에서 종료시점까지 그 Project를 지휘, 감독하여 기술, 품질, 비용, 일정상의 요구사항을 만족시킬 수 있는 최종 결과를 낳고, 동시에 비즈니스로서의 이익목표를 달성하기 위해 선임된 Project의 총괄 관리책임자를 말한다.</t>
-  </si>
-  <si>
-    <t>사업금융</t>
-  </si>
-  <si>
-    <t>事業金融</t>
-  </si>
-  <si>
-    <t>Project Financing</t>
-  </si>
-  <si>
-    <t>Project Manager의 역할은 Project의 조직화, 효율적 운용, 대외적 조정 등이며, 전문기술로 Project Team을 통솔한다기보다는, 사람을 움직이는 힘으로 Project의 목표를 달성시키는 일이다. Project Manager로서의 권한, 즉 사람을 움직이는 힘은 公的權威(Formal Authority) 및 私的權威(Informal Authority)에 의하고 있다. 公的權威(공적권위)란 Manager에 임명됨으로서 주어진 組織의 權限이다. 한편, 私的權威(사적권위)란 Project Manager가 개인적으로 갖고 있는 대인 영향력으로, 경험, 실적, 지식, 기술력, 인간적 매력에 의한 존경, 신뢰, 우호의 감정으로부터 생기는 힘이며, 사업관리에 있어서는 후자의 힘이 대단히 크게 작용하는데 유의해야 한다.</t>
-  </si>
-  <si>
-    <t>아닐링/풀림/소둔</t>
-  </si>
-  <si>
-    <t>Annealing</t>
-  </si>
-  <si>
-    <t>Project Manager의 責任은 한마디로 말하면 Project를 성공시키는 것이며 이에는 고객을 만족시키는 일과 회사의 Top Management를 만족시키는 일이 포함되어 있다. 이 책임은 극히 광범위하며, 대표적인 것으로서는 1. Project 수행방침 및 목표치의 설정 2. Project 組織의 維持 3. Project 요구 품질, 일정, 비용의 목표달성, 4. Project 수행 상황의 파악, 감독, 5. 회사를 대표한 발주자 대응 6. 例外事項에 대한 의사결정 등이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아담슨조인트 </t>
-  </si>
-  <si>
-    <t>Akamson Joint</t>
-  </si>
-  <si>
-    <t>대규모의 Project에서는 Project Manager를 상위에서 원조하는 Project Director 하위에서 보좌하는 Assistant Project Manager, Staff로 보좌하는 Pro- ject Coordinator 등을 둘 때가 있다. 또 Pro- ject Manager가 건설 현장에 상주하지 않는 경우에는 이의 대리로서 Site Manager 또는 Field Manager를 둔다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아역청탄 </t>
-  </si>
-  <si>
-    <t>亞瀝靑炭</t>
-  </si>
-  <si>
-    <t>Sub-Bitumnous Coal</t>
-  </si>
-  <si>
-    <t>역청탄중 탄화도가 낮은 것으로서 점결성이 없고 수분이 많으며 건조시 소리를 내며 갈라지고 대기중에 장시간 방치하면 분해된다. 발열량은 무수무회기준으로 4,600-6,400kcal/ kg정도이다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이들기어 </t>
-  </si>
-  <si>
-    <t>Idle Gear</t>
-  </si>
-  <si>
-    <t>전동장치에 있어서 원동차와 종동차의 중간에 있는 기어로 2축간의 거리가 크거나 혹은 회전방향을 바꾸기 위해 사용한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이들러 </t>
-  </si>
-  <si>
-    <t>Idler</t>
-  </si>
-  <si>
-    <t>콘베이어 계통에서 벨트를 받쳐 밑으로 늘어지지 않게 하고 마찰을 감소시켜 주는 롤러(Roller)장치로 벨트를 이송시켜 주는 곳에도 사용된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자가용화력발전소 </t>
-  </si>
-  <si>
-    <t>自家用火力發電所</t>
-  </si>
-  <si>
-    <t>Captive Power Plant</t>
-  </si>
-  <si>
-    <t>자가 사용 전력을 생산할 목적으로 설치하는 화력발전소. 자체에서 필요한 증기를 쓰면서 발전을 곁들이는 경우가 많다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자격부여 </t>
-  </si>
-  <si>
-    <t>資格賦與</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>발주자로부터 Proposal 제출이나 入札 資格을 부여받는 것을 Qualify 라고 하며, 계약자나 기기 공급자(Vendor)를 選定함에 있어 입찰에 참가시키는 것을 선정하는 경우에도 사용되고, 최초의 계약자나 공급자에 대해서 제출 자료나 공장 심사 등을 기본으로 하여 자격을 주는 경우에도 사용된다.자격부여를 희망하는 계약자나 공급자는 발주측에 대해서 自社의 經驗이나 能力을 이해시키기 위해서 자격심사용 서류(Qualification Brochure)를 작성하며, 이 내용은 회사 조직이 소개, 취급하고 있는 Process나 제품의 특징, 과거 실적, 기술 제휴의 紹介 등이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자계 </t>
-  </si>
-  <si>
-    <t>磁界</t>
-  </si>
-  <si>
-    <t>Magnetic Field</t>
-  </si>
-  <si>
-    <t>자기력이 작용하는 물리적 상태의 공간이다.</t>
-  </si>
-  <si>
-    <t>자기(自己)임피던스</t>
-  </si>
-  <si>
-    <t>Self Impedance</t>
-  </si>
-  <si>
-    <t>전류의 흐름을 방해하는 전기회로의 물리적 특성을 말하며, 저항의 일종에 속한다. 어떤 전기회로에 전류 I가 흐르면 전류 주위에는 자계(magnetic field)가 형성되고, 전류에 의해서 생긴 자속(magnetic flux)과 항상 반대방향으로 교차(이를 “쇄교”라고 한다)하게 된다. 이러한 경우에 회로에 흐르는 전류를 변화시키면 쇄교수에 변화가 생겨서 회로 내에는 자속의 변화를 방해하는 방향으로 기전력이 유도된다. 이때 자속ψ와 전류I와의 비를 회로의 자기임피던스라 한다. 식으로 표시하면 L＝dψ/dI [H], 이것을 Impedance로 환산한 값을 Self Impedance라 한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자기검사 </t>
-  </si>
-  <si>
-    <t>磁氣檢査</t>
-  </si>
-  <si>
-    <t>Magnetic Inspection</t>
-  </si>
-  <si>
-    <t>전자석을 응용하여 용접부 외부의 균열, 동공 등의 불량을 확인하는 검사이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차단기 </t>
-  </si>
-  <si>
-    <t>遮斷器</t>
-  </si>
-  <si>
-    <t>Breaker/Circuit Breaker</t>
-  </si>
-  <si>
-    <t>정상상태의 전류를 투입 통전 차단하며 단락과 같은 이상상태에 있어서 투입, 일정시간의 통전 차단이 가능한 개폐장치이다.</t>
-  </si>
-  <si>
-    <t>CB : Circuit Breaker</t>
-  </si>
-  <si>
-    <t>차단기는 정상상태의 전로뿐만 아니라 이상상태의 전로도 개폐할 수 있는 개폐장치를 말한다. 국제표준규격(IEC)에서는 ‘정상상태의 전류를 투입, 통전, 차단하며 또한 단락과 같은 소정의 이상상태에 있어서 투입, 일정시간의 통전, 차단이 가능하도록 설계된 개폐장치를 말한다’라고 정의한다. 차단기의 구비요건(성능)으로는, 투입상태에서 양호한 도체로, 정상 또는 단락고장상태와 같은 이상조건에서도 열적, 구조적으로 견디어야 하며 개방상태에서 양호한 절연체로 상간 또는 상과 대지간 절연이 유지되어야 한다. 또한 차단기 투입시에는 이상전압 발생이 없이 정격 또는 그 이하의 발생전류를 정상적으로 차단하여야 하고 차단기 개방시에는 접촉자 손상이 없이 신속, 안전하게 회로를 분리하여야 한다. 차단기는 사용회로에 따라 직류용, 교류용으로 분류되며 소호방식에 따라 자력식, 타력식으로 구분되고, 소호매질에 따라 기중차단기(ACB), 유입차단기(OCB), 자기차단기(MBB), 공기차단기(ABB), 진공차단기(VCB), 가스차단기(GCB)로 분류된다. 또한 차단기 사용목적에 따라 발전기용, 선로용, 변압기용, 콘덴서회로용, 분로리액터(Shunt Re- actor)용 등으로 분류되기도 한다.</t>
-  </si>
-  <si>
-    <t>차단벽/커튼월</t>
-  </si>
-  <si>
-    <t>遮斷壁</t>
-  </si>
-  <si>
-    <t>Curtain Wall</t>
-  </si>
-  <si>
-    <t>온도가 낮은 심층해수를 취수하기 위해 취수구 앞면에 설치한 상부 차단용의 벽이다.</t>
-  </si>
-  <si>
-    <t>차단시간</t>
-  </si>
-  <si>
-    <t>遮斷時間</t>
-  </si>
-  <si>
-    <t>Breaking Time</t>
-  </si>
-  <si>
-    <t>차단기의 차단특성의 하나이며 개극 시간[페로상태에 있는 장치의 트립 기구에 부세한 순시로부터 아아크 접촉자가 개리하기 시작할 때까지의 시간(아아크 접촉자 개리의 순시로부터 각 상 또는 어떤 상이 소호할 때까지의 시간)의 합을 말한다. 보통형에서는 8 ~ 10 Hz, 고속형이 5Hz, 초고속도형은 3Hz이다</t>
-  </si>
-  <si>
-    <t>차단양정</t>
-  </si>
-  <si>
-    <t>遮斷揚程</t>
-  </si>
-  <si>
-    <t>Shut Off Head/No-Discha- rge Head</t>
-  </si>
-  <si>
-    <t>정상 운전중인 펌프의 출구변을 닫았을 경우 송출량이 0일 때의 총양정이다.</t>
-  </si>
-  <si>
-    <t>카르노사이클</t>
-  </si>
-  <si>
-    <t>Carnot Cycle</t>
-  </si>
-  <si>
-    <t>열기관의 최고 열효율을 알기 위해 카르노가 생각한 열역학상의 가역사이클로 2개의 등온변화와 2개의 단열변화를 가상하고 기체를 등온팽창-단열팽창-등온압축-단열압축의 변화를 시켜 최초의 상태로 복귀시키는 사이클이다. 실제의기관에서는 마찰이나 열의 전도가 있기 때문에 완전한 단열변화나 등온변화 실현시킬수는 없으므로 이 사이클은 성립되지 않지만 실제의 기관이 이상적인 사이클과 비교하여 얼마만큼 개량할 여지가 있는가를 조사하기 위해서 중요한 의의가 있다.</t>
-  </si>
-  <si>
-    <t>카르만와열</t>
-  </si>
-  <si>
-    <t>Karman Vortex Street</t>
-  </si>
-  <si>
-    <t>어느 유동조건하에서 물체의 양측으로부터 회전방향이 반대인 와동이 번갈아가며 발생하여 규칙적인 배열을 유지하면서 흘러가버리는 와열이다.</t>
-  </si>
-  <si>
-    <t>카보런덤</t>
-  </si>
-  <si>
-    <t>Carborundum</t>
-  </si>
-  <si>
-    <t>규사와 코우크스를 전기로에서 약 2000C로 가열하여 만든다. 융점이 높고 단단하며 용도는 내화제, 연마재로 쓰인다.</t>
-  </si>
-  <si>
-    <t>카운트 발란스</t>
-  </si>
-  <si>
-    <t>Count Balance</t>
-  </si>
-  <si>
-    <t>전복이 우려되는 곳에 균형을 잡아주기 위해 실어주는 Weight로 총 중량은 빈 케이지(Cage)의 하중에 사용 상황에 따른 적재하중의 35-40%의 중량을 더한 값으로 하는 것이 보통이며 적재하중의 몇%를 더한 것이 오버밸런스(Over Bala- nce)이며 평행추(Count Balance Weight)는 거의가 오목구강형으로 만든 틀 속에 주철재의 추(錘) 조작을 삽입하고 있으며 흔들림이 있을 때에 추 조작이 빠져나오지 않도록 하여야 한다. 프레스와 같이 상하로 왕복운동을 하는 슬라이드의 관성을 경감하기 위한 장치이기도 하다.</t>
-  </si>
-  <si>
-    <t>카트리지</t>
-  </si>
-  <si>
-    <t>Cartridge</t>
-  </si>
-  <si>
-    <t>컴퓨터 프로그램이나 데아타값을 저장하기위해 사용되는 소형장치.  디스크에 비해 저장하는 정보의 양은 작고 접근시간은 길다.</t>
-  </si>
-  <si>
-    <t>타당성조사</t>
-  </si>
-  <si>
-    <t>妥當性照査</t>
-  </si>
-  <si>
-    <t>Feasibility Study</t>
-  </si>
-  <si>
-    <t>발주자가 사업을 착수할 때 기술적으로 가능한지, 채산성이 있는지, 사업으로서의 가능성이 있는지 등을 사전에 조사하는 것으로 검토의 정도에 따라 豫備調査, 細部調査로 분류하며 기업화 조사 또는 투자조사라 불리는 것도 있다.타당성 조사를 시행하기 이해서는 우선 프로젝트의 목적이 설정되어 있어야 하며 또한 개략의 계획이 있어야 비로소 그 프로젝트가 실행 가능한지 어떤지를 검토할 수 있다. 타당성 조사에 포함된 조사, 검토 작업에는 市場調査, 技術檢討, 資金計劃, 社會分析(社會體制, 環境) 및 經濟性 分析이 있다.예를 들면 Plant의 경우 원료, 제품의 시장조사, 이용 가능한 기술과 Process의 비교, 예비적인 Cost 적산(건설비와 조업 Cost), 경제적 최적 규모, 입지조건과 입지선정, 건설공사, 운전 공정의 입안, Master Plan 작성, 기기 시방서의 기준이 되는 설비나 기기 기준 등이 포함되어 있다.</t>
-  </si>
-  <si>
-    <t>타원몸통형밸브</t>
-  </si>
-  <si>
-    <t>楕圓몸통型밸브</t>
-  </si>
-  <si>
-    <t>Oval Shape Valve</t>
-  </si>
-  <si>
-    <t>몸통의 상부가 타원형인 밸브이다.</t>
-  </si>
-  <si>
-    <t>타음검사</t>
-  </si>
-  <si>
-    <t>打音檢査</t>
-  </si>
-  <si>
-    <t>Hammering Test</t>
-  </si>
-  <si>
-    <t>해머 등으로 두드려서 음의 높이, 감쇠의 속도로서 내부의 상태를 판단하는 검사이다.</t>
-  </si>
-  <si>
-    <t>타임 래그</t>
-  </si>
-  <si>
-    <t>Time-lag</t>
-  </si>
-  <si>
-    <t>인간은 두뇌에서 어떤 행동을 결심해도 그 지령에 따라 손과 발이 작용해서 동작하기까지에는 시간을 요한다. 즉 판단에 의해 지령한 것은 지령과 동시에 동작으로 나타나는 것이 아니고 나타나기까지에는 어떤 시간적인 어긋남이 있다. 이것을 타임래그라고 한다. 이와 같은 타임래그는 생산과정에서의 설비기계, 장치의 움직임에 있어서도 마찬가지로 그것이 인간과 짝을 이루는 인간기계계에 있어서는 보다 크게 타임 래그가 나타나서 재해의 원인이 된다.</t>
-  </si>
-  <si>
-    <t>탁도</t>
-  </si>
-  <si>
-    <t>濁度</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>물의 흐림 정도를 나타내는 단위. 보통 흐림은 진흙, 유기물, 미생물 등 물에 용해되지 않는 물질이 침강되지 않고 부유되어 있을 때에 생긴다. 빛이 용액을 통과시 그 전후 강도의 차이로 용해분자의 크기와 형상에 관계된다. 백토 1 을 물 1 에 현탄시킨 것을 탁도 1이라하며 표준으로 사용한다.</t>
-  </si>
-  <si>
-    <t>파고율</t>
-  </si>
-  <si>
-    <t>波高率</t>
-  </si>
-  <si>
-    <t>Peak Factor/Crest Factor</t>
-  </si>
-  <si>
-    <t>교류파형의 최대값을 실효값으로 나눈 값으로 정현파의 파고율은 1.414이다.</t>
-  </si>
-  <si>
-    <t>파괴시험</t>
-  </si>
-  <si>
-    <t>破壞試驗</t>
-  </si>
-  <si>
-    <t>Break Down Test, Breaking Test</t>
-  </si>
-  <si>
-    <t>특정한 시험물체를 파괴하여 시험물체가 파괴에 견디는 최대하중이나 파괴상태 등을 조사하는 시험 이다.</t>
-  </si>
-  <si>
-    <t>파력발전</t>
-  </si>
-  <si>
-    <t>波力發電</t>
-  </si>
-  <si>
-    <t>Wave Power Generation</t>
-  </si>
-  <si>
-    <t>파랑(波浪)이 가지는 에너지를 이용하는 발전이다. 발전장치를 바다에 띄우는 방식과 연안에 설치하는 방식이 있다. 해안선에 도달하는 파력의 크기는 해안선 길이나 파력에 대한 계산방법에 따라 다르지만, 1m당 6∼10㎾로 계산하면 세계 바다의 총파력은 40페타와트(1PW=10㎾)로 추정되지만 파력에너지 전체가 전력으로 유용되지는 못한다. 1965년부터 실용화되고 있는 항로표지용 부표전원장치는 부표에 수직으로 관을 설치하고 해면의 상하운동으로 관내 공기를 압축하여 터빈을 돌려 발전하며 출력은 10㎾ 정도이다. 해안설치방식에는 고정식 공기터빈과 환초를 이용하는 댐 등이 있다.</t>
-  </si>
-  <si>
-    <t>파스칼</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>국제단위계의 압력단위로 1㎡에 1N(Newton)의 힘이 작용하는 압력으로 Pa=1.0197 X 10-5kg/㎠이다.</t>
-  </si>
-  <si>
-    <t>파아슨즈터빈</t>
-  </si>
-  <si>
-    <t>Parson's Turbine</t>
-  </si>
-  <si>
-    <t>영국이 파아슨이 발명한 반동식 증기터빈. 증기속도가 낮으며 실용적이나 몸체가 크고 제작과 수리가 어렵다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하강관 </t>
-  </si>
-  <si>
-    <t>下降管</t>
-  </si>
-  <si>
-    <t>Down Comer</t>
-  </si>
-  <si>
-    <t>보일러 상부에 설치된 드럼에서 보일러 수가 수냉벽으로 들어가기 위해 내려가는 관. 보통 4~8개의 관이 설치되며 물의 자연순환력을 높이기 위해 연소가스로 가열되지 않도록 보일러 외측에 배치되고 강제순환 보일러의 경우 하강관 중간에 보일러수 순환펌프가 설치된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하강특성 </t>
-  </si>
-  <si>
-    <t>下降特性</t>
-  </si>
-  <si>
-    <t>Rising Characteristics</t>
-  </si>
-  <si>
-    <t>송출량의 증가와 함께 총양정이 감소하는 특성이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하도급 </t>
-  </si>
-  <si>
-    <t>下都給</t>
-  </si>
-  <si>
-    <t>도급받은 건설공사의 전부 또는 일부를 도급하기 위하여 수급인이 제3자와 체결하는 계약을 말한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하부케이싱 </t>
-  </si>
-  <si>
-    <t>下部 케이싱</t>
-  </si>
-  <si>
-    <t>Lower Casing</t>
-  </si>
-  <si>
-    <t>수평분할형 터빈이나 펌프등의 케이싱 하부를 말한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하수배수펌프 </t>
-  </si>
-  <si>
-    <t>下水排水펌프</t>
-  </si>
-  <si>
-    <t>Sanitary Sewage Pump</t>
-  </si>
-  <si>
-    <t>구역내의 오수를 다음 펌프장이나 하수처리장에 보내거나 빗물을 하천에 직접 방류시키기 위하여 설치한 펌프이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격결정발전계획</t>
+  </si>
+  <si>
+    <t>가공삭도</t>
+  </si>
+  <si>
+    <t>가공송전선로</t>
+  </si>
+  <si>
+    <t>나노</t>
+  </si>
+  <si>
+    <t>라이프라인</t>
+  </si>
+  <si>
+    <t>바스크린</t>
+  </si>
+  <si>
+    <t>사각몸통형밸브</t>
+  </si>
+  <si>
+    <t>사류펌프</t>
+  </si>
+  <si>
+    <t>사업관리책임자</t>
+  </si>
+  <si>
+    <t>아담슨조인트</t>
+  </si>
+  <si>
+    <t>아역청탄</t>
+  </si>
+  <si>
+    <t>아이들기어</t>
+  </si>
+  <si>
+    <t>아이들러</t>
+  </si>
+  <si>
+    <t>자가용화력발전소</t>
+  </si>
+  <si>
+    <t>자격부여</t>
+  </si>
+  <si>
+    <t>자계</t>
+  </si>
+  <si>
+    <t>자기검사</t>
+  </si>
+  <si>
+    <t>차단기</t>
+  </si>
+  <si>
+    <t>카운트발란스</t>
+  </si>
+  <si>
+    <t>타임래그</t>
+  </si>
+  <si>
+    <t>하강관</t>
+  </si>
+  <si>
+    <t>하강특성</t>
+  </si>
+  <si>
+    <t>하도급</t>
+  </si>
+  <si>
+    <t>하부케이싱</t>
+  </si>
+  <si>
+    <t>하수배수펌프</t>
+  </si>
+  <si>
+    <t>가공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1732,1009 +1739,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>